--- a/webScraper/Listings.xlsx
+++ b/webScraper/Listings.xlsx
@@ -12,7 +12,22 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="133">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Locality</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
   <si>
     <t>R &amp; M Tractor &amp; Supply Inc</t>
   </si>
@@ -26,124 +41,166 @@
     <t>Magee, MS 39111</t>
   </si>
   <si>
+    <t>(601) 439-0305</t>
+  </si>
+  <si>
+    <t>Oktibbeha County Co-Op</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFeed DealersShoe Stores</t>
+  </si>
+  <si>
+    <t>201 Allen Rd</t>
+  </si>
+  <si>
+    <t>Maben, MS 39750</t>
+  </si>
+  <si>
+    <t>(662) 323-1742</t>
+  </si>
+  <si>
+    <t>Agri-AFC LLC</t>
+  </si>
+  <si>
+    <t>Farm SuppliesSeeds &amp; BulbsChemicals</t>
+  </si>
+  <si>
+    <t>310 E Railroad Ave N</t>
+  </si>
+  <si>
+    <t>Magnolia, MS 39652</t>
+  </si>
+  <si>
+    <t>(601) 783-6083</t>
+  </si>
+  <si>
+    <t>Bi-County Farm Supply Inc</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm EquipmentFeed Dealers</t>
+  </si>
+  <si>
+    <t>903 Highway 311</t>
+  </si>
+  <si>
+    <t>Holly Springs, MS 38635</t>
+  </si>
+  <si>
+    <t>(662) 252-4815</t>
+  </si>
+  <si>
+    <t>Tunica Farm Supply</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm Equipment</t>
+  </si>
+  <si>
+    <t>1618 Old Highway 61 S</t>
+  </si>
+  <si>
+    <t>Tunica, MS 38676</t>
+  </si>
+  <si>
+    <t>(662) 363-2090</t>
+  </si>
+  <si>
+    <t>Agro Distribution</t>
+  </si>
+  <si>
+    <t>1634 Desoto Ave</t>
+  </si>
+  <si>
+    <t>Clarksdale, MS 38614</t>
+  </si>
+  <si>
+    <t>(662) 624-8381</t>
+  </si>
+  <si>
+    <t>Tate County Co-Op</t>
+  </si>
+  <si>
+    <t>Farm Supplies</t>
+  </si>
+  <si>
+    <t>8728 Highway 51</t>
+  </si>
+  <si>
+    <t>Coldwater, MS 38618</t>
+  </si>
+  <si>
+    <t>(662) 622-7782</t>
+  </si>
+  <si>
+    <t>Waynesboro Farm Supply</t>
+  </si>
+  <si>
+    <t>1325 Mississippi Dr</t>
+  </si>
+  <si>
+    <t>Waynesboro, MS 39367</t>
+  </si>
+  <si>
+    <t>(601) 735-1623</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Farm SuppliesSeeds &amp; Bulbs-Wholesale &amp; Growers</t>
+  </si>
+  <si>
+    <t>2515 Highway 12 E</t>
+  </si>
+  <si>
+    <t>Hollandale, MS 38748</t>
+  </si>
+  <si>
+    <t>(662) 827-5008</t>
+  </si>
+  <si>
+    <t>205 Scott St</t>
+  </si>
+  <si>
+    <t>Senatobia, MS 38668</t>
+  </si>
+  <si>
+    <t>(662) 562-7811</t>
+  </si>
+  <si>
+    <t>Sanders Jimmy Inc</t>
+  </si>
+  <si>
+    <t>62901 Highway 82 W</t>
+  </si>
+  <si>
+    <t>Greenwood, MS 38930</t>
+  </si>
+  <si>
+    <t>(662) 453-7010</t>
+  </si>
+  <si>
+    <t>Pinola Farm Supply Inc</t>
+  </si>
+  <si>
+    <t>2247 Simpson Highway 28 W</t>
+  </si>
+  <si>
+    <t>Pinola, MS 39149</t>
+  </si>
+  <si>
+    <t>(601) 847-1757</t>
+  </si>
+  <si>
+    <t>Walthall County Co-Op Aal</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFertilizersFarm Equipment</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>Oktibbeha County Co-Op</t>
-  </si>
-  <si>
-    <t>Farm SuppliesFeed DealersShoe Stores</t>
-  </si>
-  <si>
-    <t>201 Allen Rd</t>
-  </si>
-  <si>
-    <t>Maben, MS 39750</t>
-  </si>
-  <si>
-    <t>Agri-AFC LLC</t>
-  </si>
-  <si>
-    <t>Farm SuppliesFarm EquipmentFeed Dealers</t>
-  </si>
-  <si>
-    <t>310 E Railroad Ave N</t>
-  </si>
-  <si>
-    <t>Magnolia, MS 39652</t>
-  </si>
-  <si>
-    <t>Bi-County Farm Supply Inc</t>
-  </si>
-  <si>
-    <t>903 Highway 311</t>
-  </si>
-  <si>
-    <t>Holly Springs, MS 38635</t>
-  </si>
-  <si>
-    <t>Tunica Farm Supply</t>
-  </si>
-  <si>
-    <t>Farm SuppliesFarm Equipment</t>
-  </si>
-  <si>
-    <t>1618 Old Highway 61 S</t>
-  </si>
-  <si>
-    <t>Tunica, MS 38676</t>
-  </si>
-  <si>
-    <t>Agro Distribution</t>
-  </si>
-  <si>
-    <t>1634 Desoto Ave</t>
-  </si>
-  <si>
-    <t>Clarksdale, MS 38614</t>
-  </si>
-  <si>
-    <t>Tate County Co-Op</t>
-  </si>
-  <si>
-    <t>Farm Supplies</t>
-  </si>
-  <si>
-    <t>8728 Highway 51</t>
-  </si>
-  <si>
-    <t>Coldwater, MS 38618</t>
-  </si>
-  <si>
-    <t>Waynesboro Farm Supply</t>
-  </si>
-  <si>
-    <t>1325 Mississippi Dr</t>
-  </si>
-  <si>
-    <t>Waynesboro, MS 39367</t>
-  </si>
-  <si>
-    <t>Helena</t>
-  </si>
-  <si>
-    <t>Farm SuppliesSeeds &amp; Bulbs-Wholesale &amp; Growers</t>
-  </si>
-  <si>
-    <t>2515 Highway 12 E</t>
-  </si>
-  <si>
-    <t>Hollandale, MS 38748</t>
-  </si>
-  <si>
-    <t>205 Scott St</t>
-  </si>
-  <si>
-    <t>Senatobia, MS 38668</t>
-  </si>
-  <si>
-    <t>Sanders Jimmy Inc</t>
-  </si>
-  <si>
-    <t>62901 Highway 82 W</t>
-  </si>
-  <si>
-    <t>Greenwood, MS 38930</t>
-  </si>
-  <si>
-    <t>Pinola Farm Supply Inc</t>
-  </si>
-  <si>
-    <t>2247 Simpson Highway 28 W</t>
-  </si>
-  <si>
-    <t>Pinola, MS 39149</t>
-  </si>
-  <si>
-    <t>Walthall County Co-Op Aal</t>
-  </si>
-  <si>
-    <t>Farm SuppliesFertilizersFarm Equipment</t>
+    <t>(601) 876-3428</t>
   </si>
   <si>
     <t>Valley Agri-Supply Inc</t>
@@ -155,6 +212,9 @@
     <t>Water Valley, MS 38965</t>
   </si>
   <si>
+    <t>(662) 473-2288</t>
+  </si>
+  <si>
     <t>Farmbelt Equipment Inc</t>
   </si>
   <si>
@@ -167,6 +227,9 @@
     <t>Brookhaven, MS 39601</t>
   </si>
   <si>
+    <t>(601) 833-3501</t>
+  </si>
+  <si>
     <t>Tippah County Co-Ops</t>
   </si>
   <si>
@@ -179,6 +242,9 @@
     <t>Ripley, MS 38663</t>
   </si>
   <si>
+    <t>(662) 837-8451</t>
+  </si>
+  <si>
     <t>Greenleaf Agri Products Inc</t>
   </si>
   <si>
@@ -188,6 +254,9 @@
     <t>Summit, MS 39666</t>
   </si>
   <si>
+    <t>(601) 276-7531</t>
+  </si>
+  <si>
     <t>S &amp; H Country Feed Store</t>
   </si>
   <si>
@@ -197,6 +266,9 @@
     <t>Golden, MS 38847</t>
   </si>
   <si>
+    <t>(662) 676-2330</t>
+  </si>
+  <si>
     <t>Bryant Seed &amp; Farm Supply</t>
   </si>
   <si>
@@ -206,6 +278,9 @@
     <t>Moselle, MS 39459</t>
   </si>
   <si>
+    <t>(601) 582-4043</t>
+  </si>
+  <si>
     <t>Clay County Co-Op</t>
   </si>
   <si>
@@ -215,6 +290,9 @@
     <t>West Point, MS 39773</t>
   </si>
   <si>
+    <t>(662) 494-4676</t>
+  </si>
+  <si>
     <t>Plunkett's Farm Supply</t>
   </si>
   <si>
@@ -224,12 +302,18 @@
     <t>Monticello, MS 39654</t>
   </si>
   <si>
+    <t>(601) 587-4685</t>
+  </si>
+  <si>
     <t>1205 Rialto Rd</t>
   </si>
   <si>
     <t>Yazoo City, MS 39194</t>
   </si>
   <si>
+    <t>(662) 746-7466</t>
+  </si>
+  <si>
     <t>Gibbs Farm &amp; Garden</t>
   </si>
   <si>
@@ -239,6 +323,9 @@
     <t>Forest, MS 39074</t>
   </si>
   <si>
+    <t>(601) 469-4143</t>
+  </si>
+  <si>
     <t>Triple Stop Inc</t>
   </si>
   <si>
@@ -251,6 +338,12 @@
     <t>Vaiden, MS 39176</t>
   </si>
   <si>
+    <t>(662) 464-0342</t>
+  </si>
+  <si>
+    <t>(662) 247-3525</t>
+  </si>
+  <si>
     <t>Sandy Hook Feed and Seed</t>
   </si>
   <si>
@@ -263,6 +356,9 @@
     <t>Sandy Hook, MS 39478</t>
   </si>
   <si>
+    <t>(601) 736-7718</t>
+  </si>
+  <si>
     <t>Tupelo Farm &amp; Ranch Supply</t>
   </si>
   <si>
@@ -275,6 +371,9 @@
     <t>Tupelo, MS 38804</t>
   </si>
   <si>
+    <t>(662) 842-1011</t>
+  </si>
+  <si>
     <t>Noxubee Civic Center</t>
   </si>
   <si>
@@ -284,6 +383,9 @@
     <t>Macon, MS 39341</t>
   </si>
   <si>
+    <t>(662) 726-1335</t>
+  </si>
+  <si>
     <t>Noxubee Farm Supply</t>
   </si>
   <si>
@@ -293,6 +395,9 @@
     <t>16084 Us Highway 45</t>
   </si>
   <si>
+    <t>(662) 726-2833</t>
+  </si>
+  <si>
     <t>Circle L Farm Supply</t>
   </si>
   <si>
@@ -303,6 +408,9 @@
   </si>
   <si>
     <t>Bay Springs, MS 39422</t>
+  </si>
+  <si>
+    <t>(601) 764-3108</t>
   </si>
 </sst>
 </file>
@@ -347,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -384,483 +492,500 @@
         <v>8</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>4</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s" s="0">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>4</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s" s="0">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="E13" t="s" s="0">
-        <v>4</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E14" t="s" s="0">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>4</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>4</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>4</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>4</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>69</v>
+        <v>91</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>4</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>71</v>
+        <v>95</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>4</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>4</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>4</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>84</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>4</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>24</v>
+        <v>116</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>88</v>
+        <v>117</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>4</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>4</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>4</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/webScraper/Listings.xlsx
+++ b/webScraper/Listings.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="649">
   <si>
     <t>Name</t>
   </si>
@@ -62,7 +62,7 @@
     <t>Agri-AFC LLC</t>
   </si>
   <si>
-    <t>Farm SuppliesSeeds &amp; BulbsChemicals</t>
+    <t>Farm SuppliesFarm EquipmentFeed Dealers</t>
   </si>
   <si>
     <t>310 E Railroad Ave N</t>
@@ -77,9 +77,6 @@
     <t>Bi-County Farm Supply Inc</t>
   </si>
   <si>
-    <t>Farm SuppliesFarm EquipmentFeed Dealers</t>
-  </si>
-  <si>
     <t>903 Highway 311</t>
   </si>
   <si>
@@ -411,6 +408,1557 @@
   </si>
   <si>
     <t>(601) 764-3108</t>
+  </si>
+  <si>
+    <t>Tractor Supply Co</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm EquipmentCompressors</t>
+  </si>
+  <si>
+    <t>6915 Windchase Dr</t>
+  </si>
+  <si>
+    <t>Horn Lake, MS 38637</t>
+  </si>
+  <si>
+    <t>(662) 536-3650</t>
+  </si>
+  <si>
+    <t>Magee Cooperative AAL</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFeed DealersHardware Stores</t>
+  </si>
+  <si>
+    <t>714 Co Op Rd SE</t>
+  </si>
+  <si>
+    <t>(601) 849-3381</t>
+  </si>
+  <si>
+    <t>Farmers Cooperative AAL</t>
+  </si>
+  <si>
+    <t>Farm SuppliesLumberHardware Stores</t>
+  </si>
+  <si>
+    <t>2104 Highway 61 N</t>
+  </si>
+  <si>
+    <t>Port Gibson, MS 39150</t>
+  </si>
+  <si>
+    <t>(601) 437-4281</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>100 Belmont St</t>
+  </si>
+  <si>
+    <t>Clinton, MS 39056</t>
+  </si>
+  <si>
+    <t>(601) 924-5015</t>
+  </si>
+  <si>
+    <t>A &amp; R Farm &amp; Garden</t>
+  </si>
+  <si>
+    <t>Farm SuppliesGarden CentersFeed Dealers</t>
+  </si>
+  <si>
+    <t>5367 Old Highway 42</t>
+  </si>
+  <si>
+    <t>Hattiesburg, MS 39401</t>
+  </si>
+  <si>
+    <t>(601) 583-0422</t>
+  </si>
+  <si>
+    <t>Tackett Farm Shop</t>
+  </si>
+  <si>
+    <t>32523 County Road 523</t>
+  </si>
+  <si>
+    <t>Itta Bena, MS 38941</t>
+  </si>
+  <si>
+    <t>(662) 254-7324</t>
+  </si>
+  <si>
+    <t>175 Laughlin Rd</t>
+  </si>
+  <si>
+    <t>Boyle, MS 38730</t>
+  </si>
+  <si>
+    <t>(662) 843-3661</t>
+  </si>
+  <si>
+    <t>1983 Highway 72 E Anx</t>
+  </si>
+  <si>
+    <t>Corinth, MS 38834</t>
+  </si>
+  <si>
+    <t>(662) 286-8117</t>
+  </si>
+  <si>
+    <t>1635 Highway 82 E</t>
+  </si>
+  <si>
+    <t>Leland, MS 38756</t>
+  </si>
+  <si>
+    <t>(662) 686-2144</t>
+  </si>
+  <si>
+    <t>Kbh Corp</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm EquipmentFarms</t>
+  </si>
+  <si>
+    <t>395 Anderson Blvd</t>
+  </si>
+  <si>
+    <t>(662) 624-5471</t>
+  </si>
+  <si>
+    <t>Monticello Hardware Feed &amp; Seed</t>
+  </si>
+  <si>
+    <t>310 Main St</t>
+  </si>
+  <si>
+    <t>(601) 587-4533</t>
+  </si>
+  <si>
+    <t>Shady Grove Feed &amp; Seed</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm EquipmentFertilizers</t>
+  </si>
+  <si>
+    <t>4785 Highway 15 N</t>
+  </si>
+  <si>
+    <t>Laurel, MS 39443</t>
+  </si>
+  <si>
+    <t>(601) 426-9746</t>
+  </si>
+  <si>
+    <t>Stuart Farm Center</t>
+  </si>
+  <si>
+    <t>Weems St</t>
+  </si>
+  <si>
+    <t>Purvis, MS 39475</t>
+  </si>
+  <si>
+    <t>(601) 794-2262</t>
+  </si>
+  <si>
+    <t>Lumberton Hardware &amp; Farm Supply</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFeed DealersCondiments &amp; Sauces</t>
+  </si>
+  <si>
+    <t>787 E Main Ave</t>
+  </si>
+  <si>
+    <t>Lumberton, MS 39455</t>
+  </si>
+  <si>
+    <t>(601) 796-2035</t>
+  </si>
+  <si>
+    <t>Choctaw Farm Supply</t>
+  </si>
+  <si>
+    <t>8865 Ms Highway 15</t>
+  </si>
+  <si>
+    <t>Ackerman, MS 39735</t>
+  </si>
+  <si>
+    <t>(662) 285-9300</t>
+  </si>
+  <si>
+    <t>Dulaney Seed Inc</t>
+  </si>
+  <si>
+    <t>Farm SuppliesSeeds &amp; Bulbs-Wholesale &amp; GrowersFarms</t>
+  </si>
+  <si>
+    <t>6933 Sunflower School Rd</t>
+  </si>
+  <si>
+    <t>(662) 627-7060</t>
+  </si>
+  <si>
+    <t>1255 Drexel Rd</t>
+  </si>
+  <si>
+    <t>(662) 363-1116</t>
+  </si>
+  <si>
+    <t>O'Tuck Supply</t>
+  </si>
+  <si>
+    <t>831 Wise St</t>
+  </si>
+  <si>
+    <t>(662) 473-2541</t>
+  </si>
+  <si>
+    <t>UAP Midsouth</t>
+  </si>
+  <si>
+    <t>6800 I 20 Frontage Rd</t>
+  </si>
+  <si>
+    <t>Bolton, MS 39041</t>
+  </si>
+  <si>
+    <t>(601) 866-9090</t>
+  </si>
+  <si>
+    <t>Newton County Farm Supply Inc</t>
+  </si>
+  <si>
+    <t>Farm SuppliesNursery &amp; Growers Equipment &amp; SuppliesGuns &amp; Gunsmiths</t>
+  </si>
+  <si>
+    <t>406 Scanlan St</t>
+  </si>
+  <si>
+    <t>Newton, MS 39345</t>
+  </si>
+  <si>
+    <t>(601) 683-3911</t>
+  </si>
+  <si>
+    <t>Leflore Ace Hardware Inc</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm EquipmentHardware Stores</t>
+  </si>
+  <si>
+    <t>319 W Park Ave</t>
+  </si>
+  <si>
+    <t>(662) 453-7436</t>
+  </si>
+  <si>
+    <t>Leake County Cooperative</t>
+  </si>
+  <si>
+    <t>101 Highway 16 W</t>
+  </si>
+  <si>
+    <t>Carthage, MS 39051</t>
+  </si>
+  <si>
+    <t>(601) 267-8034</t>
+  </si>
+  <si>
+    <t>United Agri Products</t>
+  </si>
+  <si>
+    <t>16572 Highway 8 W</t>
+  </si>
+  <si>
+    <t>Grenada, MS 38901</t>
+  </si>
+  <si>
+    <t>(662) 226-3136</t>
+  </si>
+  <si>
+    <t>850 Symphony Dr</t>
+  </si>
+  <si>
+    <t>(662) 844-7081</t>
+  </si>
+  <si>
+    <t>476 W Third St</t>
+  </si>
+  <si>
+    <t>(601) 469-9241</t>
+  </si>
+  <si>
+    <t>110 Market Pl Ste D</t>
+  </si>
+  <si>
+    <t>Hazlehurst, MS 39083</t>
+  </si>
+  <si>
+    <t>(601) 894-9920</t>
+  </si>
+  <si>
+    <t>940 Highway 13 S</t>
+  </si>
+  <si>
+    <t>Columbia, MS 39429</t>
+  </si>
+  <si>
+    <t>(601) 444-4420</t>
+  </si>
+  <si>
+    <t>7168 U S Highway 49</t>
+  </si>
+  <si>
+    <t>Hattiesburg, MS 39402</t>
+  </si>
+  <si>
+    <t>(601) 264-6331</t>
+  </si>
+  <si>
+    <t>KNR Farm Supplies Inc</t>
+  </si>
+  <si>
+    <t>863 Magnolia Rd</t>
+  </si>
+  <si>
+    <t>(228) 574-8397</t>
+  </si>
+  <si>
+    <t>Midsouth Farm Supply</t>
+  </si>
+  <si>
+    <t>1119 Desoto Ave</t>
+  </si>
+  <si>
+    <t>(662) 624-8343</t>
+  </si>
+  <si>
+    <t>Sunbelt Distributors Inc</t>
+  </si>
+  <si>
+    <t>600 Timber Ln E</t>
+  </si>
+  <si>
+    <t>Hernando, MS 38632</t>
+  </si>
+  <si>
+    <t>(662) 429-3159</t>
+  </si>
+  <si>
+    <t>Farmers Gin Inc</t>
+  </si>
+  <si>
+    <t>40610 Old Highway 45 S</t>
+  </si>
+  <si>
+    <t>Hamilton, MS 39746</t>
+  </si>
+  <si>
+    <t>(662) 343-8813</t>
+  </si>
+  <si>
+    <t>Vaiden Farm Supply</t>
+  </si>
+  <si>
+    <t>420 Court St</t>
+  </si>
+  <si>
+    <t>(662) 464-5355</t>
+  </si>
+  <si>
+    <t>12120B Old 63 S</t>
+  </si>
+  <si>
+    <t>Lucedale, MS 39452</t>
+  </si>
+  <si>
+    <t>(601) 947-2017</t>
+  </si>
+  <si>
+    <t>780 Highway 61 N</t>
+  </si>
+  <si>
+    <t>Natchez, MS 39120</t>
+  </si>
+  <si>
+    <t>(601) 442-0354</t>
+  </si>
+  <si>
+    <t>2110 Highway 19 N</t>
+  </si>
+  <si>
+    <t>Meridian, MS 39307</t>
+  </si>
+  <si>
+    <t>(601) 693-8144</t>
+  </si>
+  <si>
+    <t>Hampton Pugh Co</t>
+  </si>
+  <si>
+    <t>241 S Front St</t>
+  </si>
+  <si>
+    <t>Drew, MS 38737</t>
+  </si>
+  <si>
+    <t>(662) 745-0555</t>
+  </si>
+  <si>
+    <t>Lowndes County Farm</t>
+  </si>
+  <si>
+    <t>69 Co Op Rd</t>
+  </si>
+  <si>
+    <t>Columbus, MS 39705</t>
+  </si>
+  <si>
+    <t>(662) 328-3481</t>
+  </si>
+  <si>
+    <t>13440 Highway 49</t>
+  </si>
+  <si>
+    <t>Gulfport, MS 39503</t>
+  </si>
+  <si>
+    <t>(228) 832-9624</t>
+  </si>
+  <si>
+    <t>505 Sunbelt Dr</t>
+  </si>
+  <si>
+    <t>(662) 627-4188</t>
+  </si>
+  <si>
+    <t>Magnolia Farm &amp; Home</t>
+  </si>
+  <si>
+    <t>244 E Hickory St</t>
+  </si>
+  <si>
+    <t>Laurel, MS 39440</t>
+  </si>
+  <si>
+    <t>(601) 651-2416</t>
+  </si>
+  <si>
+    <t>1800 S Frontage Rd</t>
+  </si>
+  <si>
+    <t>Vicksburg, MS 39180</t>
+  </si>
+  <si>
+    <t>(601) 619-4448</t>
+  </si>
+  <si>
+    <t>Sanders Elevator Corp</t>
+  </si>
+  <si>
+    <t>Farm SuppliesChemicals</t>
+  </si>
+  <si>
+    <t>518 N Sharpe Ave</t>
+  </si>
+  <si>
+    <t>Cleveland, MS 38732</t>
+  </si>
+  <si>
+    <t>(662) 846-5632</t>
+  </si>
+  <si>
+    <t>Hi Grade Farm Supply and Garden Center</t>
+  </si>
+  <si>
+    <t>32 Tuscohoma St</t>
+  </si>
+  <si>
+    <t>Holcomb, MS 38940</t>
+  </si>
+  <si>
+    <t>(662) 226-0011</t>
+  </si>
+  <si>
+    <t>Circle T Fertilizer &amp; Seed Co</t>
+  </si>
+  <si>
+    <t>Farm SuppliesSeeds &amp; Bulbs-Wholesale &amp; GrowersFertilizers</t>
+  </si>
+  <si>
+    <t>1817 Highway 26 W</t>
+  </si>
+  <si>
+    <t>Poplarville, MS 39470</t>
+  </si>
+  <si>
+    <t>(601) 795-2506</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm EquipmentTractor Dealers</t>
+  </si>
+  <si>
+    <t>4010 Highway 45 N</t>
+  </si>
+  <si>
+    <t>(662) 241-9812</t>
+  </si>
+  <si>
+    <t>Rogers Road</t>
+  </si>
+  <si>
+    <t>Marks, MS 38646</t>
+  </si>
+  <si>
+    <t>(662) 326-8122</t>
+  </si>
+  <si>
+    <t>602 W Presley Blvd</t>
+  </si>
+  <si>
+    <t>Mccomb, MS 39648</t>
+  </si>
+  <si>
+    <t>(601) 684-2388</t>
+  </si>
+  <si>
+    <t>J.A.C's Earth Movers</t>
+  </si>
+  <si>
+    <t>Farm SuppliesConstruction Site-Clean-UpTrucking</t>
+  </si>
+  <si>
+    <t>Biloxi, MS 39530</t>
+  </si>
+  <si>
+    <t>(228) 861-9529</t>
+  </si>
+  <si>
+    <t>100 Howard Rd</t>
+  </si>
+  <si>
+    <t>Tchula, MS 39169</t>
+  </si>
+  <si>
+    <t>(662) 235-4510</t>
+  </si>
+  <si>
+    <t>1301 Greta Ln</t>
+  </si>
+  <si>
+    <t>Starkville, MS 39759</t>
+  </si>
+  <si>
+    <t>(662) 324-9721</t>
+  </si>
+  <si>
+    <t>1199 Highway 51</t>
+  </si>
+  <si>
+    <t>Winona, MS 38967</t>
+  </si>
+  <si>
+    <t>(662) 283-3990</t>
+  </si>
+  <si>
+    <t>Belmont Farm &amp; Home</t>
+  </si>
+  <si>
+    <t>Farm SuppliesHardware StoresGas Stations</t>
+  </si>
+  <si>
+    <t>79 Highway 436</t>
+  </si>
+  <si>
+    <t>Glen Allan, MS 38744</t>
+  </si>
+  <si>
+    <t>(662) 839-5511</t>
+  </si>
+  <si>
+    <t>2448 Highway 49 E</t>
+  </si>
+  <si>
+    <t>Sumner, MS 38957</t>
+  </si>
+  <si>
+    <t>(662) 375-7036</t>
+  </si>
+  <si>
+    <t>Tri-County Farm Service</t>
+  </si>
+  <si>
+    <t>2274 Mcingvale Rd</t>
+  </si>
+  <si>
+    <t>(662) 429-0681</t>
+  </si>
+  <si>
+    <t>Clint Williams Co</t>
+  </si>
+  <si>
+    <t>1710 Cypress Ln</t>
+  </si>
+  <si>
+    <t>(662) 455-4009</t>
+  </si>
+  <si>
+    <t>464 Springridge Rd</t>
+  </si>
+  <si>
+    <t>(601) 924-7342</t>
+  </si>
+  <si>
+    <t>West Point Farm Supply</t>
+  </si>
+  <si>
+    <t>1277 Highway 45 N</t>
+  </si>
+  <si>
+    <t>(662) 524-1130</t>
+  </si>
+  <si>
+    <t>2320 Highway 43 S</t>
+  </si>
+  <si>
+    <t>Picayune, MS 39466</t>
+  </si>
+  <si>
+    <t>(601) 798-1263</t>
+  </si>
+  <si>
+    <t>14841 Highway 16 W</t>
+  </si>
+  <si>
+    <t>Philadelphia, MS 39350</t>
+  </si>
+  <si>
+    <t>(601) 656-3967</t>
+  </si>
+  <si>
+    <t>2211 Highway 82 W</t>
+  </si>
+  <si>
+    <t>(662) 453-1357</t>
+  </si>
+  <si>
+    <t>Hudson Farm Supply</t>
+  </si>
+  <si>
+    <t>PO Box 122</t>
+  </si>
+  <si>
+    <t>Wiggins, MS 39577</t>
+  </si>
+  <si>
+    <t>(601) 528-9796</t>
+  </si>
+  <si>
+    <t>176 Feather Ln</t>
+  </si>
+  <si>
+    <t>Canton, MS 39046</t>
+  </si>
+  <si>
+    <t>(601) 859-8400</t>
+  </si>
+  <si>
+    <t>Agri Business Poultry Supply</t>
+  </si>
+  <si>
+    <t>1329 Highway 13 N</t>
+  </si>
+  <si>
+    <t>(601) 731-2415</t>
+  </si>
+  <si>
+    <t>1800 Simpson Highway 49</t>
+  </si>
+  <si>
+    <t>(601) 867-3739</t>
+  </si>
+  <si>
+    <t>Animal Health Products Inc</t>
+  </si>
+  <si>
+    <t>Farm SuppliesAnimal Health ProductsPet Supplies &amp; Foods-Wholesale &amp; Manufacturers</t>
+  </si>
+  <si>
+    <t>995 I 20 Frontage Rd</t>
+  </si>
+  <si>
+    <t>Jackson, MS 39204</t>
+  </si>
+  <si>
+    <t>(601) 354-0733</t>
+  </si>
+  <si>
+    <t>735 Hall St</t>
+  </si>
+  <si>
+    <t>7875 U S Highway 49</t>
+  </si>
+  <si>
+    <t>(601) 264-4464</t>
+  </si>
+  <si>
+    <t>Mid-South Ag Equipment</t>
+  </si>
+  <si>
+    <t>3821 Cobb Rd</t>
+  </si>
+  <si>
+    <t>(662) 363-2231</t>
+  </si>
+  <si>
+    <t>3409 Farrish Gravel Rd</t>
+  </si>
+  <si>
+    <t>Batesville, MS 38606</t>
+  </si>
+  <si>
+    <t>(662) 563-9631</t>
+  </si>
+  <si>
+    <t>102 Baptist Dr</t>
+  </si>
+  <si>
+    <t>Richland, MS 39218</t>
+  </si>
+  <si>
+    <t>(601) 420-2082</t>
+  </si>
+  <si>
+    <t>112 Virginia Way</t>
+  </si>
+  <si>
+    <t>New Albany, MS 38652</t>
+  </si>
+  <si>
+    <t>(662) 534-3844</t>
+  </si>
+  <si>
+    <t>1501 Northwest Dr</t>
+  </si>
+  <si>
+    <t>(601) 425-3207</t>
+  </si>
+  <si>
+    <t>Self Creek Shavings</t>
+  </si>
+  <si>
+    <t>4204 Self Creek Rd</t>
+  </si>
+  <si>
+    <t>(662) 418-5553</t>
+  </si>
+  <si>
+    <t>The Shrub Shack</t>
+  </si>
+  <si>
+    <t>235 Erle Johnson Rd</t>
+  </si>
+  <si>
+    <t>(601) 697-9324</t>
+  </si>
+  <si>
+    <t>Farmers Feed &amp; Supply</t>
+  </si>
+  <si>
+    <t>200 N Main St</t>
+  </si>
+  <si>
+    <t>(601) 964-8122</t>
+  </si>
+  <si>
+    <t>1831 W Peace St</t>
+  </si>
+  <si>
+    <t>(601) 859-8735</t>
+  </si>
+  <si>
+    <t>Two Rivers Outdoor Farm &amp; Home Center</t>
+  </si>
+  <si>
+    <t>1213 Highway 15</t>
+  </si>
+  <si>
+    <t>Richton, MS 39476</t>
+  </si>
+  <si>
+    <t>(601) 788-6981</t>
+  </si>
+  <si>
+    <t>Birdsong Peanuts</t>
+  </si>
+  <si>
+    <t>3216 Highway 15 N</t>
+  </si>
+  <si>
+    <t>QC Supply</t>
+  </si>
+  <si>
+    <t>Farm SuppliesBoot StoresClothing Stores</t>
+  </si>
+  <si>
+    <t>1910 Highway 35 S</t>
+  </si>
+  <si>
+    <t>(601) 469-1813</t>
+  </si>
+  <si>
+    <t>Williams Bros</t>
+  </si>
+  <si>
+    <t>10360 Road 375</t>
+  </si>
+  <si>
+    <t>(601) 656-2651</t>
+  </si>
+  <si>
+    <t>Woods Farm Supply Inc</t>
+  </si>
+  <si>
+    <t>PO Box 366</t>
+  </si>
+  <si>
+    <t>Byhalia, MS 38611</t>
+  </si>
+  <si>
+    <t>(662) 838-6754</t>
+  </si>
+  <si>
+    <t>Pipkin &amp; Son Farm Supply</t>
+  </si>
+  <si>
+    <t>46 Oak St</t>
+  </si>
+  <si>
+    <t>Coffeeville, MS 38922</t>
+  </si>
+  <si>
+    <t>(662) 709-2058</t>
+  </si>
+  <si>
+    <t>Farm SuppliesBoot StoresWork Clothes</t>
+  </si>
+  <si>
+    <t>3906 Highway 49</t>
+  </si>
+  <si>
+    <t>Collins, MS 39428</t>
+  </si>
+  <si>
+    <t>(601) 765-4510</t>
+  </si>
+  <si>
+    <t>1618 U S Highway 61 S</t>
+  </si>
+  <si>
+    <t>Dundee, MS 38626</t>
+  </si>
+  <si>
+    <t>Farm SuppliesPest Control Equipment &amp; SuppliesIndustrial Equipment &amp; Supplies</t>
+  </si>
+  <si>
+    <t>1037 Highway 84 E</t>
+  </si>
+  <si>
+    <t>(601) 835-0307</t>
+  </si>
+  <si>
+    <t>County Co-Op Fax</t>
+  </si>
+  <si>
+    <t>(662) 338-9096</t>
+  </si>
+  <si>
+    <t>County Line Ranch Supply</t>
+  </si>
+  <si>
+    <t>230 County Road 164</t>
+  </si>
+  <si>
+    <t>(662) 453-6575</t>
+  </si>
+  <si>
+    <t>Farmer's Stop</t>
+  </si>
+  <si>
+    <t>3391 Tippo Rd</t>
+  </si>
+  <si>
+    <t>Charleston, MS 38921</t>
+  </si>
+  <si>
+    <t>(662) 647-5999</t>
+  </si>
+  <si>
+    <t>Daltons Farm Supply</t>
+  </si>
+  <si>
+    <t>2619 N Ms Highway 24 And 33</t>
+  </si>
+  <si>
+    <t>Centreville, MS 39631</t>
+  </si>
+  <si>
+    <t>(601) 645-6404</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm EquipmentTractor Equipment &amp; Parts</t>
+  </si>
+  <si>
+    <t>1983 Highway 72 E</t>
+  </si>
+  <si>
+    <t>A D Supply</t>
+  </si>
+  <si>
+    <t>2767 Highway 49</t>
+  </si>
+  <si>
+    <t>(601) 765-6001</t>
+  </si>
+  <si>
+    <t>Gold Coast Commodities</t>
+  </si>
+  <si>
+    <t>807 N College St</t>
+  </si>
+  <si>
+    <t>Brandon, MS 39042</t>
+  </si>
+  <si>
+    <t>(601) 825-2508</t>
+  </si>
+  <si>
+    <t>180 Highway 12 W</t>
+  </si>
+  <si>
+    <t>Kosciusko, MS 39090</t>
+  </si>
+  <si>
+    <t>(662) 289-2262</t>
+  </si>
+  <si>
+    <t>45 County Road 259c</t>
+  </si>
+  <si>
+    <t>Bruce, MS 38915</t>
+  </si>
+  <si>
+    <t>(662) 983-3400</t>
+  </si>
+  <si>
+    <t>214 Walmart Cir</t>
+  </si>
+  <si>
+    <t>Booneville, MS 38829</t>
+  </si>
+  <si>
+    <t>(662) 728-2200</t>
+  </si>
+  <si>
+    <t>Raleigh Farm Supply</t>
+  </si>
+  <si>
+    <t>271 Magnolia Dr</t>
+  </si>
+  <si>
+    <t>Raleigh, MS 39153</t>
+  </si>
+  <si>
+    <t>(601) 822-5050</t>
+  </si>
+  <si>
+    <t>5001 Bienville Blvd</t>
+  </si>
+  <si>
+    <t>Ocean Springs, MS 39564</t>
+  </si>
+  <si>
+    <t>(228) 872-8077</t>
+  </si>
+  <si>
+    <t>1220 Highway 90</t>
+  </si>
+  <si>
+    <t>Bay Saint Louis, MS 39520</t>
+  </si>
+  <si>
+    <t>(228) 466-4446</t>
+  </si>
+  <si>
+    <t>6713 Rolling Rock Dr</t>
+  </si>
+  <si>
+    <t>(706) 568-6165</t>
+  </si>
+  <si>
+    <t>Mize Supply</t>
+  </si>
+  <si>
+    <t>415 Scr 28-1</t>
+  </si>
+  <si>
+    <t>Mize, MS 39116</t>
+  </si>
+  <si>
+    <t>(601) 733-9921</t>
+  </si>
+  <si>
+    <t>P &amp; M Farm Supply</t>
+  </si>
+  <si>
+    <t>22298 Highway 63</t>
+  </si>
+  <si>
+    <t>Leakesville, MS 39451</t>
+  </si>
+  <si>
+    <t>(601) 394-5700</t>
+  </si>
+  <si>
+    <t>2075 Sunset Dr</t>
+  </si>
+  <si>
+    <t>(662) 226-6066</t>
+  </si>
+  <si>
+    <t>Monroe County Farm &amp; Ranch</t>
+  </si>
+  <si>
+    <t>203 Highway 6</t>
+  </si>
+  <si>
+    <t>Amory, MS 38821</t>
+  </si>
+  <si>
+    <t>(662) 256-4999</t>
+  </si>
+  <si>
+    <t>Jimmy Sanders Inc</t>
+  </si>
+  <si>
+    <t>5523 Ms Highway 32 Central</t>
+  </si>
+  <si>
+    <t>(662) 647-5500</t>
+  </si>
+  <si>
+    <t>3001 Highway 82 E</t>
+  </si>
+  <si>
+    <t>Greenville, MS 38703</t>
+  </si>
+  <si>
+    <t>(662) 379-4000</t>
+  </si>
+  <si>
+    <t>Bayer CropScience</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarms</t>
+  </si>
+  <si>
+    <t>407 W Goldstein St</t>
+  </si>
+  <si>
+    <t>(662) 827-7212</t>
+  </si>
+  <si>
+    <t>Tallahatchie Farmer's Supply Inc</t>
+  </si>
+  <si>
+    <t>17891 Tippo Rd</t>
+  </si>
+  <si>
+    <t>(662) 647-8859</t>
+  </si>
+  <si>
+    <t>BASF the Chemical Company</t>
+  </si>
+  <si>
+    <t>117 Kennedy Flat Rd</t>
+  </si>
+  <si>
+    <t>(662) 686-9235</t>
+  </si>
+  <si>
+    <t>206 First St</t>
+  </si>
+  <si>
+    <t>Scott, MS 38772</t>
+  </si>
+  <si>
+    <t>(662) 742-4000</t>
+  </si>
+  <si>
+    <t>306 E Sunflower Rd</t>
+  </si>
+  <si>
+    <t>(662) 843-8343</t>
+  </si>
+  <si>
+    <t>Benton Farm Supply</t>
+  </si>
+  <si>
+    <t>6303 Highway 16 E</t>
+  </si>
+  <si>
+    <t>Vaughan, MS 39179</t>
+  </si>
+  <si>
+    <t>(662) 673-8811</t>
+  </si>
+  <si>
+    <t>Britt Farm Services</t>
+  </si>
+  <si>
+    <t>920 Highway 1 N</t>
+  </si>
+  <si>
+    <t>(662) 332-7730</t>
+  </si>
+  <si>
+    <t>2115 S Church Ave</t>
+  </si>
+  <si>
+    <t>Louisville, MS 39339</t>
+  </si>
+  <si>
+    <t>(662) 773-5465</t>
+  </si>
+  <si>
+    <t>3377 Tippo Rd</t>
+  </si>
+  <si>
+    <t>5572 Highway 25</t>
+  </si>
+  <si>
+    <t>Flowood, MS 39232</t>
+  </si>
+  <si>
+    <t>(601) 992-7717</t>
+  </si>
+  <si>
+    <t>2110 Azalea Dr S</t>
+  </si>
+  <si>
+    <t>(601) 928-2784</t>
+  </si>
+  <si>
+    <t>Simplot Grower Solutions</t>
+  </si>
+  <si>
+    <t>301 Elm St</t>
+  </si>
+  <si>
+    <t>Shaw, MS 38773</t>
+  </si>
+  <si>
+    <t>(662) 754-5901</t>
+  </si>
+  <si>
+    <t>Farm SuppliesSeeds &amp; Bulbs-Wholesale &amp; GrowersSeeds &amp; Bulbs</t>
+  </si>
+  <si>
+    <t>664 Lake Washington Rd W</t>
+  </si>
+  <si>
+    <t>(662) 839-5900</t>
+  </si>
+  <si>
+    <t>133 NW Plaza Dr</t>
+  </si>
+  <si>
+    <t>(662) 301-4681</t>
+  </si>
+  <si>
+    <t>905 Highway 278 E Ste 2</t>
+  </si>
+  <si>
+    <t>(662) 256-2646</t>
+  </si>
+  <si>
+    <t>Mullen's Farm Supply</t>
+  </si>
+  <si>
+    <t>513 George Payne Cossar Blvd</t>
+  </si>
+  <si>
+    <t>(662) 647-2604</t>
+  </si>
+  <si>
+    <t>2029 Highway 49 E</t>
+  </si>
+  <si>
+    <t>(662) 375-8347</t>
+  </si>
+  <si>
+    <t>(662) 343-9246</t>
+  </si>
+  <si>
+    <t>1265 Highway 61 S</t>
+  </si>
+  <si>
+    <t>(662) 363-2411</t>
+  </si>
+  <si>
+    <t>2110 19th Ave</t>
+  </si>
+  <si>
+    <t>Meridian, MS 39301</t>
+  </si>
+  <si>
+    <t>180 Highway 12 E</t>
+  </si>
+  <si>
+    <t>3001A Highway 82 E</t>
+  </si>
+  <si>
+    <t>1601 Azalea Dr</t>
+  </si>
+  <si>
+    <t>(601) 671-8712</t>
+  </si>
+  <si>
+    <t>9 Ed Perry Blvd</t>
+  </si>
+  <si>
+    <t>Oxford, MS 38655</t>
+  </si>
+  <si>
+    <t>(662) 234-7191</t>
+  </si>
+  <si>
+    <t>905 Highway 278 E</t>
+  </si>
+  <si>
+    <t>County Line Feed and Seed</t>
+  </si>
+  <si>
+    <t>1520 Azalea Dr</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarm EquipmentHome Centers</t>
+  </si>
+  <si>
+    <t>2211 Highway 82 E</t>
+  </si>
+  <si>
+    <t>7168 49</t>
+  </si>
+  <si>
+    <t>1216 Mississippi 6</t>
+  </si>
+  <si>
+    <t>(662) 578-4844</t>
+  </si>
+  <si>
+    <t>1253 Highway 42</t>
+  </si>
+  <si>
+    <t>Petal, MS 39465</t>
+  </si>
+  <si>
+    <t>(601) 554-8718</t>
+  </si>
+  <si>
+    <t>Farm SuppliesBaling Equipment &amp; SuppliesFarms</t>
+  </si>
+  <si>
+    <t>1009 First St</t>
+  </si>
+  <si>
+    <t>Inverness, MS 38753</t>
+  </si>
+  <si>
+    <t>(662) 265-5828</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFarmsFarm Equipment</t>
+  </si>
+  <si>
+    <t>6800 Interstate 20</t>
+  </si>
+  <si>
+    <t>Chancellor Farm Supply</t>
+  </si>
+  <si>
+    <t>5177 Highway 11 N</t>
+  </si>
+  <si>
+    <t>Ellisville, MS 39437</t>
+  </si>
+  <si>
+    <t>(601) 649-4772</t>
+  </si>
+  <si>
+    <t>180 Mississippi 12</t>
+  </si>
+  <si>
+    <t>780 U.S. 61</t>
+  </si>
+  <si>
+    <t>Risher Farm Supply</t>
+  </si>
+  <si>
+    <t>502 Old Morton Rd</t>
+  </si>
+  <si>
+    <t>992 Mackie Dr</t>
+  </si>
+  <si>
+    <t>(662) 252-6730</t>
+  </si>
+  <si>
+    <t>11151 Highway 49 E</t>
+  </si>
+  <si>
+    <t>Webb, MS 38966</t>
+  </si>
+  <si>
+    <t>905 6th Ave S Highway 278 E Ste 2</t>
+  </si>
+  <si>
+    <t>6303 Old Highway 16</t>
+  </si>
+  <si>
+    <t>Benton, MS 39039</t>
+  </si>
+  <si>
+    <t>9920 Ridgeway Industrial Dr</t>
+  </si>
+  <si>
+    <t>Olive Branch, MS 38654</t>
+  </si>
+  <si>
+    <t>(662) 874-6014</t>
+  </si>
+  <si>
+    <t>940 Main St</t>
+  </si>
+  <si>
+    <t>100 Handley Blvd</t>
+  </si>
+  <si>
+    <t>Byram, MS 39272</t>
+  </si>
+  <si>
+    <t>(769) 572-7349</t>
+  </si>
+  <si>
+    <t>(662) 286-8297</t>
+  </si>
+  <si>
+    <t>12120 Old 63 S</t>
+  </si>
+  <si>
+    <t>1350 Brookway Boulevard Ext NW</t>
+  </si>
+  <si>
+    <t>(601) 823-0540</t>
+  </si>
+  <si>
+    <t>3042 Hwy 11</t>
+  </si>
+  <si>
+    <t>1983 U.S. 72</t>
+  </si>
+  <si>
+    <t>2092 Highway 15 N</t>
+  </si>
+  <si>
+    <t>Pontotoc, MS 38863</t>
+  </si>
+  <si>
+    <t>(662) 489-8285</t>
+  </si>
+  <si>
+    <t>Uap Midsouth</t>
+  </si>
+  <si>
+    <t>6800 I 20</t>
+  </si>
+  <si>
+    <t>9920 Vista Ridge Dr</t>
+  </si>
+  <si>
+    <t>134 Ventura Dr</t>
+  </si>
+  <si>
+    <t>(601) 947-4670</t>
+  </si>
+  <si>
+    <t>10870 Highway 15 S</t>
+  </si>
+  <si>
+    <t>(662) 502-2802</t>
+  </si>
+  <si>
+    <t>940 Mississippi 13</t>
+  </si>
+  <si>
+    <t>301 David Work Dr</t>
+  </si>
+  <si>
+    <t>Rosedale, MS 38769</t>
+  </si>
+  <si>
+    <t>(662) 759-0183</t>
+  </si>
+  <si>
+    <t>Stuart Farm Supply</t>
+  </si>
+  <si>
+    <t>2413 Highway 589</t>
+  </si>
+  <si>
+    <t>(601) 336-7135</t>
+  </si>
+  <si>
+    <t>Monroe County Co-Op</t>
+  </si>
+  <si>
+    <t>300 Quincy St</t>
+  </si>
+  <si>
+    <t>Aberdeen, MS 39730</t>
+  </si>
+  <si>
+    <t>(662) 369-8175</t>
+  </si>
+  <si>
+    <t>2871 Self Creek Rd</t>
+  </si>
+  <si>
+    <t>Pera River Farm And Garden</t>
+  </si>
+  <si>
+    <t>829 Pittman St</t>
+  </si>
+  <si>
+    <t>(601) 736-5653</t>
+  </si>
+  <si>
+    <t>Mid-South Farm Supply Inc</t>
+  </si>
+  <si>
+    <t>Hwy 49 S</t>
+  </si>
+  <si>
+    <t>1216 Highway 6 E</t>
+  </si>
+  <si>
+    <t>2508 Highway 49 S</t>
+  </si>
+  <si>
+    <t>(662) 455-2110</t>
+  </si>
+  <si>
+    <t>Tylertown Farm Supply</t>
+  </si>
+  <si>
+    <t>Farm SuppliesLawn MowersFarm Equipment</t>
+  </si>
+  <si>
+    <t>120 Beulah Ave</t>
+  </si>
+  <si>
+    <t>Tylertown, MS 39667</t>
+  </si>
+  <si>
+    <t>(601) 876-4157</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFertilizersHardware Stores</t>
+  </si>
+  <si>
+    <t>3248 Highway 309 S</t>
+  </si>
+  <si>
+    <t>Shows Bros Farm Supply</t>
+  </si>
+  <si>
+    <t>201 Shelby St</t>
+  </si>
+  <si>
+    <t>(601) 477-3915</t>
+  </si>
+  <si>
+    <t>Taylorsville Farm Supply</t>
+  </si>
+  <si>
+    <t>751 Highway 28 E</t>
+  </si>
+  <si>
+    <t>Taylorsville, MS 39168</t>
+  </si>
+  <si>
+    <t>(601) 785-4644</t>
+  </si>
+  <si>
+    <t>511 E Main St</t>
+  </si>
+  <si>
+    <t>(662) 647-8614</t>
+  </si>
+  <si>
+    <t>Norfolk Corporation</t>
+  </si>
+  <si>
+    <t>5951 Old Highway 61</t>
+  </si>
+  <si>
+    <t>Lake Cormorant, MS 38641</t>
+  </si>
+  <si>
+    <t>(662) 781-1310</t>
+  </si>
+  <si>
+    <t>Amite County Cooperative Aal</t>
+  </si>
+  <si>
+    <t>981 E Main St</t>
+  </si>
+  <si>
+    <t>Liberty, MS 39645</t>
+  </si>
+  <si>
+    <t>(601) 657-8011</t>
+  </si>
+  <si>
+    <t>Tri-County Farm Services</t>
+  </si>
+  <si>
+    <t>Farm SuppliesFeed DealersFarm Equipment</t>
+  </si>
+  <si>
+    <t>206 Highway 51</t>
+  </si>
+  <si>
+    <t>Como, MS 38619</t>
+  </si>
+  <si>
+    <t>(662) 526-9100</t>
+  </si>
+  <si>
+    <t>2021 Matthews Rd</t>
+  </si>
+  <si>
+    <t>Rolling Fork, MS 39159</t>
+  </si>
+  <si>
+    <t>(662) 873-6858</t>
   </si>
 </sst>
 </file>
@@ -455,7 +2003,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E213"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -534,458 +2082,3552 @@
         <v>20</v>
       </c>
       <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="D5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="C6" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="0">
+      <c r="D7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>32</v>
-      </c>
-      <c r="E7" t="s" s="0">
-        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="C8" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="C8" t="s" s="0">
+      <c r="D8" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D8" t="s" s="0">
+      <c r="E8" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="E8" t="s" s="0">
-        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s" s="0">
+      <c r="D9" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D9" t="s" s="0">
+      <c r="E9" t="s" s="0">
         <v>41</v>
-      </c>
-      <c r="E9" t="s" s="0">
-        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="C10" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="D10" t="s" s="0">
         <v>45</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>46</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D11" t="s" s="0">
+      <c r="E11" t="s" s="0">
         <v>49</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>50</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s" s="0">
+      <c r="D12" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>54</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B13" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s" s="0">
+      <c r="D13" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D13" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>57</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B14" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="C14" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="C14" t="s" s="0">
+      <c r="D14" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>61</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>62</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s" s="0">
+      <c r="D15" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="D15" t="s" s="0">
+      <c r="E15" t="s" s="0">
         <v>65</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="C16" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="C16" t="s" s="0">
+      <c r="D16" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="D16" t="s" s="0">
+      <c r="E16" t="s" s="0">
         <v>70</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="C17" t="s" s="0">
+      <c r="D17" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="D17" t="s" s="0">
+      <c r="E17" t="s" s="0">
         <v>75</v>
-      </c>
-      <c r="E17" t="s" s="0">
-        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s" s="0">
+      <c r="D18" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D18" t="s" s="0">
+      <c r="E18" t="s" s="0">
         <v>79</v>
-      </c>
-      <c r="E18" t="s" s="0">
-        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B19" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C19" t="s" s="0">
+      <c r="D19" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="E19" t="s" s="0">
         <v>83</v>
-      </c>
-      <c r="E19" t="s" s="0">
-        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B20" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s" s="0">
+      <c r="D20" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="E20" t="s" s="0">
         <v>87</v>
-      </c>
-      <c r="E20" t="s" s="0">
-        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C21" t="s" s="0">
+      <c r="D21" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="D21" t="s" s="0">
+      <c r="E21" t="s" s="0">
         <v>91</v>
-      </c>
-      <c r="E21" t="s" s="0">
-        <v>92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="B22" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C22" t="s" s="0">
+      <c r="D22" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="D22" t="s" s="0">
+      <c r="E22" t="s" s="0">
         <v>95</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="D23" t="s" s="0">
+      <c r="E23" t="s" s="0">
         <v>98</v>
-      </c>
-      <c r="E23" t="s" s="0">
-        <v>99</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s" s="0">
         <v>100</v>
       </c>
-      <c r="B24" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s" s="0">
+      <c r="D24" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="E24" t="s" s="0">
         <v>102</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B25" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="B25" t="s" s="0">
+      <c r="C25" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="C25" t="s" s="0">
+      <c r="D25" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="D25" t="s" s="0">
+      <c r="E25" t="s" s="0">
         <v>107</v>
-      </c>
-      <c r="E25" t="s" s="0">
-        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>110</v>
       </c>
-      <c r="B27" t="s" s="0">
+      <c r="C27" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="C27" t="s" s="0">
+      <c r="D27" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="D27" t="s" s="0">
+      <c r="E27" t="s" s="0">
         <v>113</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B28" t="s" s="0">
+      <c r="C28" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="C28" t="s" s="0">
+      <c r="D28" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="D28" t="s" s="0">
+      <c r="E28" t="s" s="0">
         <v>118</v>
-      </c>
-      <c r="E28" t="s" s="0">
-        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C29" t="s" s="0">
         <v>120</v>
       </c>
-      <c r="B29" t="s" s="0">
-        <v>35</v>
-      </c>
-      <c r="C29" t="s" s="0">
+      <c r="D29" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="D29" t="s" s="0">
+      <c r="E29" t="s" s="0">
         <v>122</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>123</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="B30" t="s" s="0">
+      <c r="C30" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="C30" t="s" s="0">
+      <c r="D30" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="E30" t="s" s="0">
         <v>126</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>122</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>127</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B31" t="s" s="0">
         <v>128</v>
       </c>
-      <c r="B31" t="s" s="0">
+      <c r="C31" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="C31" t="s" s="0">
+      <c r="D31" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="D31" t="s" s="0">
+      <c r="E31" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="E31" t="s" s="0">
-        <v>132</v>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>175</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>263</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>266</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>271</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>273</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>310</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>326</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>329</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>368</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>372</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>374</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>401</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>408</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>409</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>411</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>417</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>418</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>422</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>425</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>426</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>429</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>430</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>431</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>434</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>435</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>413</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>439</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>445</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>446</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>448</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>451</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>452</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>453</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>455</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>458</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>459</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>461</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>463</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>467</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>469</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>221</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>474</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>480</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>488</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>490</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>484</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>494</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>496</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>500</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>503</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>505</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>509</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>515</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>516</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>518</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>519</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B152" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C152" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="D152" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E152" t="s" s="0">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B153" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C153" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="D153" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E153" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B154" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C154" t="s" s="0">
+        <v>523</v>
+      </c>
+      <c r="D154" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="E154" t="s" s="0">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="B155" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C155" t="s" s="0">
+        <v>526</v>
+      </c>
+      <c r="D155" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="E155" t="s" s="0">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B156" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="C156" t="s" s="0">
+        <v>528</v>
+      </c>
+      <c r="D156" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="E156" t="s" s="0">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B157" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C157" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="D157" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E157" t="s" s="0">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B158" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C158" t="s" s="0">
+        <v>531</v>
+      </c>
+      <c r="D158" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="E158" t="s" s="0">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B159" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C159" t="s" s="0">
+        <v>533</v>
+      </c>
+      <c r="D159" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="E159" t="s" s="0">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B160" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C160" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="D160" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="E160" t="s" s="0">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B161" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C161" t="s" s="0">
+        <v>536</v>
+      </c>
+      <c r="D161" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="E161" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B162" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C162" t="s" s="0">
+        <v>537</v>
+      </c>
+      <c r="D162" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E162" t="s" s="0">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B163" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C163" t="s" s="0">
+        <v>539</v>
+      </c>
+      <c r="D163" t="s" s="0">
+        <v>540</v>
+      </c>
+      <c r="E163" t="s" s="0">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="B164" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C164" t="s" s="0">
+        <v>542</v>
+      </c>
+      <c r="D164" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="E164" t="s" s="0">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="B165" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C165" t="s" s="0">
+        <v>423</v>
+      </c>
+      <c r="D165" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E165" t="s" s="0">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B166" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C166" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="D166" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="E166" t="s" s="0">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B167" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="C167" t="s" s="0">
+        <v>546</v>
+      </c>
+      <c r="D167" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E167" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B168" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C168" t="s" s="0">
+        <v>547</v>
+      </c>
+      <c r="D168" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E168" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B169" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C169" t="s" s="0">
+        <v>548</v>
+      </c>
+      <c r="D169" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="E169" t="s" s="0">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B170" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C170" t="s" s="0">
+        <v>521</v>
+      </c>
+      <c r="D170" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="E170" t="s" s="0">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B171" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C171" t="s" s="0">
+        <v>550</v>
+      </c>
+      <c r="D171" t="s" s="0">
+        <v>551</v>
+      </c>
+      <c r="E171" t="s" s="0">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B172" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="C172" t="s" s="0">
+        <v>554</v>
+      </c>
+      <c r="D172" t="s" s="0">
+        <v>555</v>
+      </c>
+      <c r="E172" t="s" s="0">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B173" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="C173" t="s" s="0">
+        <v>558</v>
+      </c>
+      <c r="D173" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="E173" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s" s="0">
+        <v>559</v>
+      </c>
+      <c r="B174" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C174" t="s" s="0">
+        <v>560</v>
+      </c>
+      <c r="D174" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="E174" t="s" s="0">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B175" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C175" t="s" s="0">
+        <v>563</v>
+      </c>
+      <c r="D175" t="s" s="0">
+        <v>443</v>
+      </c>
+      <c r="E175" t="s" s="0">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B176" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C176" t="s" s="0">
+        <v>564</v>
+      </c>
+      <c r="D176" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="E176" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s" s="0">
+        <v>565</v>
+      </c>
+      <c r="B177" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s" s="0">
+        <v>566</v>
+      </c>
+      <c r="D177" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E177" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B178" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C178" t="s" s="0">
+        <v>567</v>
+      </c>
+      <c r="D178" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E178" t="s" s="0">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B179" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C179" t="s" s="0">
+        <v>569</v>
+      </c>
+      <c r="D179" t="s" s="0">
+        <v>570</v>
+      </c>
+      <c r="E179" t="s" s="0">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B180" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C180" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="D180" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="E180" t="s" s="0">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="0">
+        <v>498</v>
+      </c>
+      <c r="B181" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C181" t="s" s="0">
+        <v>572</v>
+      </c>
+      <c r="D181" t="s" s="0">
+        <v>573</v>
+      </c>
+      <c r="E181" t="s" s="0">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B182" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C182" t="s" s="0">
+        <v>574</v>
+      </c>
+      <c r="D182" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="E182" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B183" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C183" t="s" s="0">
+        <v>577</v>
+      </c>
+      <c r="D183" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E183" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B184" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C184" t="s" s="0">
+        <v>578</v>
+      </c>
+      <c r="D184" t="s" s="0">
+        <v>579</v>
+      </c>
+      <c r="E184" t="s" s="0">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B185" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C185" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="D185" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="E185" t="s" s="0">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B186" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C186" t="s" s="0">
+        <v>582</v>
+      </c>
+      <c r="D186" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="E186" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B187" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C187" t="s" s="0">
+        <v>583</v>
+      </c>
+      <c r="D187" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="E187" t="s" s="0">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B188" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C188" t="s" s="0">
+        <v>585</v>
+      </c>
+      <c r="D188" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="E188" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B189" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C189" t="s" s="0">
+        <v>586</v>
+      </c>
+      <c r="D189" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="E189" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B190" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C190" t="s" s="0">
+        <v>587</v>
+      </c>
+      <c r="D190" t="s" s="0">
+        <v>588</v>
+      </c>
+      <c r="E190" t="s" s="0">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="B191" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C191" t="s" s="0">
+        <v>591</v>
+      </c>
+      <c r="D191" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="E191" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B192" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C192" t="s" s="0">
+        <v>592</v>
+      </c>
+      <c r="D192" t="s" s="0">
+        <v>575</v>
+      </c>
+      <c r="E192" t="s" s="0">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B193" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C193" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="D193" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="E193" t="s" s="0">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B194" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C194" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="D194" t="s" s="0">
+        <v>254</v>
+      </c>
+      <c r="E194" t="s" s="0">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B195" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="C195" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="D195" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="E195" t="s" s="0">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B196" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="C196" t="s" s="0">
+        <v>597</v>
+      </c>
+      <c r="D196" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E196" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="B197" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C197" t="s" s="0">
+        <v>598</v>
+      </c>
+      <c r="D197" t="s" s="0">
+        <v>599</v>
+      </c>
+      <c r="E197" t="s" s="0">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="0">
+        <v>601</v>
+      </c>
+      <c r="B198" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C198" t="s" s="0">
+        <v>602</v>
+      </c>
+      <c r="D198" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="E198" t="s" s="0">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s" s="0">
+        <v>604</v>
+      </c>
+      <c r="B199" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="C199" t="s" s="0">
+        <v>605</v>
+      </c>
+      <c r="D199" t="s" s="0">
+        <v>606</v>
+      </c>
+      <c r="E199" t="s" s="0">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B200" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C200" t="s" s="0">
+        <v>608</v>
+      </c>
+      <c r="D200" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="E200" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="B201" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C201" t="s" s="0">
+        <v>610</v>
+      </c>
+      <c r="D201" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="E201" t="s" s="0">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s" s="0">
+        <v>612</v>
+      </c>
+      <c r="B202" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C202" t="s" s="0">
+        <v>613</v>
+      </c>
+      <c r="D202" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="E202" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="B203" t="s" s="0">
+        <v>433</v>
+      </c>
+      <c r="C203" t="s" s="0">
+        <v>614</v>
+      </c>
+      <c r="D203" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="E203" t="s" s="0">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B204" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C204" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="D204" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E204" t="s" s="0">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="B205" t="s" s="0">
+        <v>618</v>
+      </c>
+      <c r="C205" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="D205" t="s" s="0">
+        <v>620</v>
+      </c>
+      <c r="E205" t="s" s="0">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="B206" t="s" s="0">
+        <v>622</v>
+      </c>
+      <c r="C206" t="s" s="0">
+        <v>623</v>
+      </c>
+      <c r="D206" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="E206" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s" s="0">
+        <v>624</v>
+      </c>
+      <c r="B207" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C207" t="s" s="0">
+        <v>625</v>
+      </c>
+      <c r="D207" t="s" s="0">
+        <v>561</v>
+      </c>
+      <c r="E207" t="s" s="0">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s" s="0">
+        <v>627</v>
+      </c>
+      <c r="B208" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C208" t="s" s="0">
+        <v>628</v>
+      </c>
+      <c r="D208" t="s" s="0">
+        <v>629</v>
+      </c>
+      <c r="E208" t="s" s="0">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s" s="0">
+        <v>525</v>
+      </c>
+      <c r="B209" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C209" t="s" s="0">
+        <v>631</v>
+      </c>
+      <c r="D209" t="s" s="0">
+        <v>427</v>
+      </c>
+      <c r="E209" t="s" s="0">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="B210" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C210" t="s" s="0">
+        <v>634</v>
+      </c>
+      <c r="D210" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="E210" t="s" s="0">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s" s="0">
+        <v>637</v>
+      </c>
+      <c r="B211" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C211" t="s" s="0">
+        <v>638</v>
+      </c>
+      <c r="D211" t="s" s="0">
+        <v>639</v>
+      </c>
+      <c r="E211" t="s" s="0">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s" s="0">
+        <v>641</v>
+      </c>
+      <c r="B212" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="C212" t="s" s="0">
+        <v>643</v>
+      </c>
+      <c r="D212" t="s" s="0">
+        <v>644</v>
+      </c>
+      <c r="E212" t="s" s="0">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B213" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C213" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="D213" t="s" s="0">
+        <v>647</v>
+      </c>
+      <c r="E213" t="s" s="0">
+        <v>648</v>
       </c>
     </row>
   </sheetData>
